--- a/results/tez_sonuclar.xlsx
+++ b/results/tez_sonuclar.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b3lab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b3lab\Desktop\PycharmProjects\ACIncome_bias_fl\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13550" windowHeight="0" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13550" windowHeight="0" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Veri Analizi - All data" sheetId="2" r:id="rId1"/>
@@ -860,6 +860,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -890,16 +900,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1416,7 +1416,7 @@
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="45" t="s">
         <v>82</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -1432,7 +1432,7 @@
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="41"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="26" t="s">
         <v>117</v>
       </c>
@@ -1441,7 +1441,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="45" t="s">
         <v>119</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -1452,7 +1452,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="41"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="26" t="s">
         <v>117</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42">
+      <c r="A8" s="46">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="43"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="5" t="s">
         <v>147</v>
       </c>
@@ -1631,7 +1631,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="44"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5" t="s">
         <v>148</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="42">
+      <c r="A11" s="46">
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1651,7 +1651,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="43"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="5" t="s">
         <v>147</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="44"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5" t="s">
         <v>148</v>
       </c>
@@ -1832,7 +1832,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1849,10 +1849,10 @@
       <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="36" t="s">
@@ -1919,10 +1919,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="52"/>
     </row>
     <row r="12" spans="1:2" ht="58">
       <c r="A12" s="37" t="s">
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2329,7 +2329,7 @@
       <c r="C33" s="15">
         <v>8.9</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="54">
         <v>22</v>
       </c>
     </row>
@@ -2340,10 +2340,10 @@
       <c r="B34" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="53">
         <v>0.8</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="54"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="15">
@@ -2352,8 +2352,8 @@
       <c r="B35" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="50"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
     </row>
     <row r="36" spans="1:4" ht="37.5">
       <c r="A36" s="15">
@@ -2362,8 +2362,8 @@
       <c r="B36" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="15">
@@ -2375,7 +2375,7 @@
       <c r="C37" s="15">
         <v>5.8</v>
       </c>
-      <c r="D37" s="50"/>
+      <c r="D37" s="54"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="15">
@@ -2387,7 +2387,7 @@
       <c r="C38" s="15">
         <v>0.2</v>
       </c>
-      <c r="D38" s="50"/>
+      <c r="D38" s="54"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="15">
@@ -2399,7 +2399,7 @@
       <c r="C39" s="15">
         <v>3.8</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="54"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="15">
@@ -2411,7 +2411,7 @@
       <c r="C40" s="15">
         <v>2.5</v>
       </c>
-      <c r="D40" s="50"/>
+      <c r="D40" s="54"/>
     </row>
     <row r="41" spans="1:4">
       <c r="C41" s="10">
@@ -2447,50 +2447,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:18" s="52" customFormat="1" ht="43.5">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:18" s="42" customFormat="1" ht="43.5">
+      <c r="A1" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="41" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4922,8 +4922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4931,50 +4931,50 @@
     <col min="6" max="6" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="52" customFormat="1" ht="43.5">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" s="42" customFormat="1" ht="43.5">
+      <c r="A1" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="41" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7390,7 +7390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -7406,34 +7406,34 @@
       <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="43.5">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="43" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="29">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="42" t="s">
         <v>181</v>
       </c>
       <c r="B4">
@@ -7504,7 +7504,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.5">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="42" t="s">
         <v>182</v>
       </c>
       <c r="B5">
@@ -7537,7 +7537,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="72.5">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="42" t="s">
         <v>184</v>
       </c>
       <c r="B6">
@@ -7576,10 +7576,10 @@
       <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="43" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="29">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="42" t="s">
         <v>181</v>
       </c>
       <c r="B10">
@@ -7650,7 +7650,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.5">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="42" t="s">
         <v>182</v>
       </c>
       <c r="B11">
@@ -7683,7 +7683,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="72.5">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="42" t="s">
         <v>184</v>
       </c>
       <c r="B12">
@@ -7702,10 +7702,10 @@
         <f>2*(D12*E12)/(D12+E12)</f>
         <v>0.65866666666666662</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="44">
         <v>2.38</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="44">
         <v>0.17</v>
       </c>
       <c r="I12">
